--- a/biology/Botanique/Conservatoire_botanique/Conservatoire_botanique.xlsx
+++ b/biology/Botanique/Conservatoire_botanique/Conservatoire_botanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, un Conservatoire botanique (qui peut être national, régional..) est généralement un organisme public ou semi-public à caractère scientifique, parfois agréé par le ministère chargé de l'environnement. Il a pour vocation de contribuer à la protection du patrimoine végétal sauvage et éventuellement domestiqué et cultivé (agriculture, arboriculture, sylviculture).
 Le premier créé dans le monde francophone et entièrement consacré à la conservation du patrimoine végétal naturel a été le conservatoire botanique de Brest. 
@@ -514,18 +526,20 @@
           <t>Approches internationales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les conservatoires botaniques, avec de nombreux jardins botaniques et avec l'IPEN (Réseau International d'échange de Plantes - International Plant Exchange Network) inscrivent leur travail dans un réseau international.
-L'Europe a mis au point une stratégie européenne[1] de protection des plantes.
-Après le constat en 2010 à Nagoya de l'échec des politiques de biodiversité telles que construites avant 2010, L'ONU envisage un nouveau projet de Stratégie mondiale de conservation des plantes[2], qui devrait être évalué à la Conférence d'Hyderabad sur la diversité biologique, qui est la 11e COP (conférence des Parties) de la « Convention sur la diversité biologique » l'Organisation des Nations unies. La CITES appuie cette stratégie pour ce qui concerne le contrôle du commerce international[3].
+L'Europe a mis au point une stratégie européenne de protection des plantes.
+Après le constat en 2010 à Nagoya de l'échec des politiques de biodiversité telles que construites avant 2010, L'ONU envisage un nouveau projet de Stratégie mondiale de conservation des plantes, qui devrait être évalué à la Conférence d'Hyderabad sur la diversité biologique, qui est la 11e COP (conférence des Parties) de la « Convention sur la diversité biologique » l'Organisation des Nations unies. La CITES appuie cette stratégie pour ce qui concerne le contrôle du commerce international.
 Ces deux stratégies se déclinent en 5 grands objectifs :
 connaître et recenser la diversité végétale,
 conserver la diversité végétale,
 utiliser la diversité végétale de manière durable,
 éduquer et sensibiliser le public à la diversité végétale
 renforcer les capacités en matière de conservation de la diversité végétale:
-Ces stratégies font l'objet d'évaluation scientifiques périodiques[4]
+Ces stratégies font l'objet d'évaluation scientifiques périodiques
 </t>
         </is>
       </c>
